--- a/examplePoj/excel/enumConst.xlsx
+++ b/examplePoj/excel/enumConst.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="325">
   <si>
     <t>name</t>
   </si>
@@ -473,6 +473,620 @@
   </si>
   <si>
     <t>名望</t>
+  </si>
+  <si>
+    <t>LOC_WOOD</t>
+  </si>
+  <si>
+    <t>LOC_FOOD</t>
+  </si>
+  <si>
+    <t>LOC_IRON</t>
+  </si>
+  <si>
+    <t>LOC_STONE</t>
+  </si>
+  <si>
+    <t>LOC_COIN</t>
+  </si>
+  <si>
+    <t>LOC_GOLD</t>
+  </si>
+  <si>
+    <t>LOC_HERO_LIST</t>
+  </si>
+  <si>
+    <t>武将列表</t>
+  </si>
+  <si>
+    <t>LOC_FAME</t>
+  </si>
+  <si>
+    <t>LOC_RES_BEGIN</t>
+  </si>
+  <si>
+    <t>LOC_RES_END</t>
+  </si>
+  <si>
+    <t>LOC_GIFT</t>
+  </si>
+  <si>
+    <t>走cfg_gift</t>
+  </si>
+  <si>
+    <t>LOC_LOTTERY</t>
+  </si>
+  <si>
+    <t>走cfg_lottery</t>
+  </si>
+  <si>
+    <t>英雄列表</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_EDGE</t>
+  </si>
+  <si>
+    <t>边界</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_HILL</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_RIVAL</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_RANDOM</t>
+  </si>
+  <si>
+    <t>随机</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_STONE</t>
+  </si>
+  <si>
+    <t>石场</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_FARM</t>
+  </si>
+  <si>
+    <t>农场</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_WOOD</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_FLAT</t>
+  </si>
+  <si>
+    <t>平地</t>
+  </si>
+  <si>
+    <t>FIELD_TYPE_IRON</t>
+  </si>
+  <si>
+    <t>铁山</t>
+  </si>
+  <si>
+    <t>HERO_ATR_TYPE_YONG</t>
+  </si>
+  <si>
+    <t>勇将</t>
+  </si>
+  <si>
+    <t>HERO_ATR_TYPE_JIANG</t>
+  </si>
+  <si>
+    <t>将军</t>
+  </si>
+  <si>
+    <t>HERO_ATR_TYPE_ZHI</t>
+  </si>
+  <si>
+    <t>智将</t>
+  </si>
+  <si>
+    <t>HERO_ATR_TYPE_CI</t>
+  </si>
+  <si>
+    <t>策士</t>
+  </si>
+  <si>
+    <t>ARMY_COUNT_MAX</t>
+  </si>
+  <si>
+    <t>一个玩家拥有的最大军队数量</t>
+  </si>
+  <si>
+    <t>ARMY_ID_1</t>
+  </si>
+  <si>
+    <t>军队id1</t>
+  </si>
+  <si>
+    <t>ARMY_ID_2</t>
+  </si>
+  <si>
+    <t>军队id2</t>
+  </si>
+  <si>
+    <t>ARMY_ID_3</t>
+  </si>
+  <si>
+    <t>军队id3</t>
+  </si>
+  <si>
+    <t>ARMY_ID_4</t>
+  </si>
+  <si>
+    <t>军队id4</t>
+  </si>
+  <si>
+    <t>ARMY_ID_5</t>
+  </si>
+  <si>
+    <t>军队id5</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_HURT_ATTR</t>
+  </si>
+  <si>
+    <t>技能类型  属性绝对值计算</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_HURT_DIFF_ATTR</t>
+  </si>
+  <si>
+    <t>技能类型  属性相对值计算</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_ADD_BLEED</t>
+  </si>
+  <si>
+    <t>技能类型 加血，这个一般都是绝对值计算</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_BUFFER</t>
+  </si>
+  <si>
+    <t>技能类型 设置atr_modify类 buf</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_STATUE</t>
+  </si>
+  <si>
+    <t>技能类型 设置状态</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_EFFTIMES_STATUE</t>
+  </si>
+  <si>
+    <t>技能类型  次数状态</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_CLEAR_GOOD_BUFFER</t>
+  </si>
+  <si>
+    <t>技能类型 清空好buff</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_CLEAR_BAD_BUFFER</t>
+  </si>
+  <si>
+    <t>技能类型 清空坏buff</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_CLEAR_GOOD_STATUE</t>
+  </si>
+  <si>
+    <t>技能类型 清空好状态</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_CLEAR_BAD_STATUE</t>
+  </si>
+  <si>
+    <t>技能类型 清空坏状态</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_ATTACK</t>
+  </si>
+  <si>
+    <t>技能类型  普通攻击</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_ARROW_NTK</t>
+  </si>
+  <si>
+    <t>技能类型  飞羽攻击</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_OPPO_HURT_ATTR</t>
+  </si>
+  <si>
+    <t>技能类型  根据对方的属性绝对值计算</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_ATK</t>
+  </si>
+  <si>
+    <t>状态不能攻击</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_ATK</t>
+  </si>
+  <si>
+    <t>状态不能被攻击</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_SKILL</t>
+  </si>
+  <si>
+    <t>状态不能放被动技能</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_TEAMER_SKILL</t>
+  </si>
+  <si>
+    <t>状态不能被队友放技能</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_ENEMY_SKILL</t>
+  </si>
+  <si>
+    <t>状态不能被敌人放技能</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_SKILL</t>
+  </si>
+  <si>
+    <t>状态不能被放技能</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_MAN_SKILL</t>
+  </si>
+  <si>
+    <t>状态不能放主动技能</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_MAN_SKILL</t>
+  </si>
+  <si>
+    <t>状态不能被主动技能释放</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_TEAMER_BUFFER</t>
+  </si>
+  <si>
+    <t>状态不能被队友放BUFF</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_ENEMY_BUFFER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态不能被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放BUFF</t>
+    </r>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_BUFFER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态不能被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放BUFF</t>
+    </r>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_TEAMER_STATUE</t>
+  </si>
+  <si>
+    <t>状态不能被队友放状态</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_ENEMY_STATUE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态不能被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放状态</t>
+    </r>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_STATUE</t>
+  </si>
+  <si>
+    <t>状态不能被放状态</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_DEAD</t>
+  </si>
+  <si>
+    <t>免死状态</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_BE_ARROW_ATK</t>
+  </si>
+  <si>
+    <t>免飞羽状态</t>
+  </si>
+  <si>
+    <t>STATUE_UNABLE_ARROW_ATK</t>
+  </si>
+  <si>
+    <t>不能释放飞羽</t>
+  </si>
+  <si>
+    <t>TAR_IDX_SELF</t>
+  </si>
+  <si>
+    <t>目标位置</t>
+  </si>
+  <si>
+    <t>TAR_IDX_TEAMER_PLATFORM</t>
+  </si>
+  <si>
+    <t>TAR_IDX_TEAMER_BEFORE_SELF</t>
+  </si>
+  <si>
+    <t>TAR_IDX_TEAMER_AFTER_SELF</t>
+  </si>
+  <si>
+    <t>TAR_IDX_TEAMER_ALL</t>
+  </si>
+  <si>
+    <t>TAR_IDX_OPPO_THE_SAME_POS</t>
+  </si>
+  <si>
+    <t>TAR_IDX_OPPO_PLATFORM</t>
+  </si>
+  <si>
+    <t>TAR_IDX_OPPO_BEFORE_SELF</t>
+  </si>
+  <si>
+    <t>TAR_IDX_OPPO_AFTER_SELF</t>
+  </si>
+  <si>
+    <t>TAR_IDX_OPPO_ALL</t>
+  </si>
+  <si>
+    <t>ATR_SPEED</t>
+  </si>
+  <si>
+    <t>属性idx</t>
+  </si>
+  <si>
+    <t>ATR_WULI</t>
+  </si>
+  <si>
+    <t>ATR_ZHILI</t>
+  </si>
+  <si>
+    <t>ATR_TONGSHAI</t>
+  </si>
+  <si>
+    <t>ATR_MAX</t>
+  </si>
+  <si>
+    <t>属性Max</t>
+  </si>
+  <si>
+    <t>CALC_ATR_BLEED</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>CALC_ATR_MAX_BLEED</t>
+  </si>
+  <si>
+    <t>血量最大值</t>
+  </si>
+  <si>
+    <t>CALC_ATR_WU_ATK</t>
+  </si>
+  <si>
+    <t>物攻</t>
+  </si>
+  <si>
+    <t>CALC_ATR_WU_DEF</t>
+  </si>
+  <si>
+    <t>物防</t>
+  </si>
+  <si>
+    <t>CALC_ATR_ZHI_ATK</t>
+  </si>
+  <si>
+    <t>智攻</t>
+  </si>
+  <si>
+    <t>CALC_ATR_ZHI_DEF</t>
+  </si>
+  <si>
+    <t>智防</t>
+  </si>
+  <si>
+    <t>CALC_ATR_ARROW_ATK</t>
+  </si>
+  <si>
+    <t>箭伤害</t>
+  </si>
+  <si>
+    <t>CALC_ATR_SPEED</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>CALC_ATR_APPEND_ATK</t>
+  </si>
+  <si>
+    <t>追击</t>
+  </si>
+  <si>
+    <t>CALC_ATR_AUTO_ADD_BLEED</t>
+  </si>
+  <si>
+    <t>自动回血</t>
+  </si>
+  <si>
+    <t>ALL_ATR_MAX</t>
+  </si>
+  <si>
+    <t>BUF_TY_GOOD_BUFFER</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>好的buff</t>
+  </si>
+  <si>
+    <t>BUF_TY_BAD_BUFFER</t>
+  </si>
+  <si>
+    <t>坏的buff</t>
+  </si>
+  <si>
+    <t>HERO_RECRUIT_TYPE_COIN_1_TIMES</t>
+  </si>
+  <si>
+    <t>用银币抽卡1次</t>
+  </si>
+  <si>
+    <t>HERO_RECRUIT_TYPE_COIN_10_TIMES</t>
+  </si>
+  <si>
+    <t>用银币抽卡10次</t>
+  </si>
+  <si>
+    <t>HERO_RECRUIT_TYPE_DIAMOND_1_TIMES</t>
+  </si>
+  <si>
+    <t>用金币抽卡1次</t>
+  </si>
+  <si>
+    <t>HERO_RECRUIT_TYPE_DIAMOND_10_TIMES</t>
+  </si>
+  <si>
+    <t>用金币抽卡10次</t>
+  </si>
+  <si>
+    <t>HERO_RECRUIT_SPEC_TIMES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt32</t>
+    </r>
+  </si>
+  <si>
+    <t>逢10会有特殊抽奖</t>
+  </si>
+  <si>
+    <t>HERO_RECRUIT_TENTH_POOL_ID</t>
+  </si>
+  <si>
+    <t>HERO_RECRUIT_SPEC_STAR</t>
+  </si>
+  <si>
+    <t>抽到5星卡会有次数累计的变化</t>
   </si>
 </sst>
 </file>
@@ -480,12 +1094,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,7 +1109,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,28 +1137,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,21 +1166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -575,12 +1174,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -598,10 +1195,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,8 +1257,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,7 +1281,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +1347,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,61 +1383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +1407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,31 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,13 +1443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,6 +1478,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -892,24 +1529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -921,6 +1540,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,10 +1586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,16 +1598,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,126 +1619,135 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,10 +2098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2523,6 +3160,1364 @@
         <v>152</v>
       </c>
     </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1006</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1007</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1008</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>2001</v>
+      </c>
+      <c r="D86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>2002</v>
+      </c>
+      <c r="D87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>2003</v>
+      </c>
+      <c r="D88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>8</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>4</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="3">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="1">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="1">
+        <v>8</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="1">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>10</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="1">
+        <v>11</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="1">
+        <v>13</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>251</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>255</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>265</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="1">
+        <v>7</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="1">
+        <v>8</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1">
+        <v>9</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="1">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>281</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>283</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>285</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>287</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>291</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>295</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>299</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>303</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B166" t="s">
+        <v>307</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B167" t="s">
+        <v>307</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" t="s">
+        <v>307</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B169" t="s">
+        <v>307</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/examplePoj/excel/enumConst.xlsx
+++ b/examplePoj/excel/enumConst.xlsx
@@ -1094,9 +1094,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1105,27 +1105,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1143,24 +1122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,9 +1146,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1193,6 +1210,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -1221,22 +1244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1246,13 +1253,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1287,7 +1287,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,13 +1347,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,13 +1395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,43 +1407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,79 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,15 +1478,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1501,6 +1492,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,23 +1529,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,10 +1586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1598,139 +1598,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2100,8 +2100,8 @@
   <sheetPr/>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/examplePoj/excel/enumConst.xlsx
+++ b/examplePoj/excel/enumConst.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11910"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="output_enumConst" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="326">
   <si>
     <t>name</t>
   </si>
@@ -241,7 +254,7 @@
     <t>部队cst</t>
   </si>
   <si>
-    <t>BUILD_EFF_ID_ARMY_CNT</t>
+    <t>BUILD_EFF_ID_ARMY_CST_CNT</t>
   </si>
   <si>
     <t>部队的数量</t>
@@ -518,9 +531,6 @@
   </si>
   <si>
     <t>走cfg_lottery</t>
-  </si>
-  <si>
-    <t>英雄列表</t>
   </si>
   <si>
     <t>FIELD_TYPE_EDGE</t>
@@ -1088,16 +1098,22 @@
   <si>
     <t>抽到5星卡会有次数累计的变化</t>
   </si>
+  <si>
+    <t>CALC_ATR_ARROW</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1105,65 +1121,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1175,23 +1132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,12 +1153,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -1244,9 +1181,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1256,6 +1231,47 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1287,7 +1303,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,7 +1345,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,43 +1447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,103 +1477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,6 +1494,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1511,48 +1560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1570,6 +1577,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1583,154 +1599,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1753,52 +1769,52 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -2100,14 +2116,14 @@
   <sheetPr/>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="17.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3329,717 +3345,717 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88">
-        <v>2003</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="A88" s="1" t="s">
         <v>168</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C91" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="1">
-        <v>9</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="A97" t="s">
         <v>186</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="A101" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1">
-        <v>5</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="3">
-        <v>5</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="A107" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="1">
-        <v>13</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="A120" t="s">
         <v>232</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C132">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C133">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C134">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>265</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137">
-        <v>18</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="A137" s="1" t="s">
         <v>266</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="1">
-        <v>1</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4050,10 +4066,10 @@
         <v>5</v>
       </c>
       <c r="C139" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4064,10 +4080,10 @@
         <v>5</v>
       </c>
       <c r="C140" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4078,10 +4094,10 @@
         <v>5</v>
       </c>
       <c r="C141" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4092,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="C142" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4106,10 +4122,10 @@
         <v>5</v>
       </c>
       <c r="C143" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4120,10 +4136,10 @@
         <v>5</v>
       </c>
       <c r="C144" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4134,10 +4150,10 @@
         <v>5</v>
       </c>
       <c r="C145" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4148,38 +4164,38 @@
         <v>5</v>
       </c>
       <c r="C146" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>277</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="1">
-        <v>10</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>268</v>
+      <c r="B147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
+        <v>279</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
         <v>278</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4190,10 +4206,10 @@
         <v>5</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4204,10 +4220,10 @@
         <v>5</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4218,15 +4234,15 @@
         <v>5</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>5</v>
@@ -4235,259 +4251,259 @@
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C158">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C162">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-      <c r="D163" t="s">
-        <v>284</v>
+      <c r="B163" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B165" t="s">
+        <v>306</v>
+      </c>
+      <c r="C165">
         <v>1</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C165" s="1">
-        <v>2</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>310</v>
+      <c r="D165" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B167" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B168" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B169" t="s">
-        <v>307</v>
+        <v>318</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C170">
-        <v>10</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4495,27 +4511,27 @@
         <v>322</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>320</v>
+      <c r="A172" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" t="s">
+        <v>306</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
